--- a/CONTROLCENTER.xlsx
+++ b/CONTROLCENTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81B475-8914-432E-B879-51B206E4FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA94DC39-0430-410E-AEB2-442E13D116AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="15804" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,7 +375,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -383,7 +383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -391,8 +391,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
